--- a/RUDN/Importance/Varible_muatal_in_Western Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Western Africa.xlsx
@@ -16,12 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
@@ -49,12 +49,12 @@
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -97,51 +97,51 @@
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
+    <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
     <t>Female population 50-54</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
@@ -229,10 +229,13 @@
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
     <t>Population, female</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
     <t>Female population 35-39</t>
@@ -250,9 +253,6 @@
     <t>Population, total</t>
   </si>
   <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
@@ -289,66 +289,69 @@
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 15-64, male</t>
   </si>
   <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
     <t>Female population 05-09</t>
   </si>
   <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Female population 65-69</t>
   </si>
   <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
@@ -358,27 +361,24 @@
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
@@ -394,21 +394,21 @@
     <t>Female population 15-19</t>
   </si>
   <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
-    <t>Male population 45-49</t>
+    <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -442,33 +442,33 @@
     <t>Female population 20-24</t>
   </si>
   <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
     <t>Labor force, female</t>
   </si>
   <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
@@ -544,12 +544,12 @@
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -562,15 +562,15 @@
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
     <t>Urban population</t>
   </si>
   <si>
@@ -607,12 +607,12 @@
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
@@ -625,15 +625,15 @@
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
@@ -646,33 +646,33 @@
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
@@ -688,24 +688,24 @@
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Reported cases of malaria</t>
   </si>
   <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
@@ -715,210 +715,210 @@
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
   </si>
   <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
     <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
     <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
+    <t>School enrollment, primary (% net)</t>
   </si>
   <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Status under enhanced HIPC initiative</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
@@ -940,39 +940,39 @@
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
@@ -982,48 +982,48 @@
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
     <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
@@ -1054,43 +1054,46 @@
     <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: electricity  (% of households)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: dung (% of households)</t>
+  </si>
+  <si>
     <t>Main cooking fuel: charcoal (% of households)</t>
   </si>
   <si>
-    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: dung (% of households)</t>
+    <t>Main cooking fuel: LPG/natural gas/biogas (% of households)</t>
   </si>
   <si>
     <t>Female headed households (% of households with a female head)</t>
   </si>
   <si>
-    <t>Main cooking fuel: electricity  (% of households)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: LPG/natural gas/biogas (% of households)</t>
-  </si>
-  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
     <t>Unmet need for contraception (% of married women ages 15-49)</t>
   </si>
   <si>
     <t>Demand for family planning satisfied by modern methods (% of married women with demand for family planning)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
     <t>People using safely managed drinking water services (% of population)</t>
@@ -1111,87 +1114,84 @@
     <t>Children with fever receiving antimalarial drugs (% of children under age 5 with fever)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
     <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
     <t>Age at first marriage, female</t>
   </si>
   <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
     <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
   </si>
   <si>
     <t>Prevalence of wasting, female (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
     <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
   </si>
   <si>
     <t>Prevalence of overweight, female (% of children under 5)</t>
   </si>
   <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
@@ -1213,10 +1213,10 @@
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.287830047454666</v>
+        <v>1.287934039267842</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.28562895809741</v>
+        <v>1.285841059218679</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.235701861689749</v>
+        <v>1.236805824482873</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.200400159926254</v>
+        <v>1.203168995613635</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.084865546840769</v>
+        <v>1.08517110343155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.002363575720455</v>
+        <v>1.009878801893355</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9600219888020245</v>
+        <v>0.9598574068402077</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9600219888020245</v>
+        <v>0.9598574068402077</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8969872801238536</v>
+        <v>0.8967321780830373</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8969872801238536</v>
+        <v>0.8967321780830373</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8881853146731049</v>
+        <v>0.888610484741132</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8761905643299306</v>
+        <v>0.8768283194319713</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.862981724826426</v>
+        <v>0.865131847696035</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8425314378548281</v>
+        <v>0.843260300828589</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8326997633391762</v>
+        <v>0.8321671327045048</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8203515055519919</v>
+        <v>0.8201053913735774</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8193318674509871</v>
+        <v>0.8183114592877212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.812451372599992</v>
+        <v>0.8119502533488725</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.8081229269692662</v>
+        <v>0.808298481061871</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8073887960603097</v>
+        <v>0.8058521099572968</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.8038903670476198</v>
+        <v>0.8037160888473416</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.796006590771289</v>
+        <v>0.7951570978357214</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7957273656253769</v>
+        <v>0.7916534916083267</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.791289060121446</v>
+        <v>0.7916534916083267</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.791289060121446</v>
+        <v>0.7867531600928053</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7829969276114266</v>
+        <v>0.7834493967614122</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7826692434302385</v>
+        <v>0.7829969276114266</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7685457794942701</v>
+        <v>0.7706645969420545</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.763898321066605</v>
+        <v>0.7632582740066063</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7634228559684231</v>
+        <v>0.7628779129033392</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7551620899326688</v>
+        <v>0.7553888473022834</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7492857528283121</v>
+        <v>0.7494747173029905</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7452658774821899</v>
+        <v>0.7472316795771294</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7432355323198401</v>
+        <v>0.7452658774821899</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7401680335329615</v>
+        <v>0.7434244967945194</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7322776641572406</v>
+        <v>0.7324319597464442</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7263093116884325</v>
+        <v>0.7322117961107737</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.715286406848012</v>
+        <v>0.7267192971111731</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7063729402755599</v>
+        <v>0.7061986620752816</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.702335908262802</v>
+        <v>0.7026193549748205</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7014648903818723</v>
+        <v>0.7010397203138448</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6993872319269103</v>
+        <v>0.698923905570727</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.6985366996523639</v>
+        <v>0.6982532529403458</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6811367086037023</v>
+        <v>0.6808508778182998</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.678537872496539</v>
+        <v>0.6790102836832355</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6773189617545312</v>
+        <v>0.6767151931290378</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6762053566991391</v>
+        <v>0.6762333898904371</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6645582264399197</v>
+        <v>0.6635378182766547</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6626723131903267</v>
+        <v>0.6616519050270613</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6576486616210095</v>
+        <v>0.6584382631759174</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6541465361657814</v>
+        <v>0.6518207475279416</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6522551489560064</v>
+        <v>0.6503729378689727</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6505463985655937</v>
+        <v>0.6502615074911207</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6490128330164393</v>
+        <v>0.6488015290691247</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6468806721281521</v>
+        <v>0.6481561823322339</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6465022499787247</v>
+        <v>0.6453907339437395</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6436488523120434</v>
+        <v>0.6450850955922243</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6433142134922374</v>
+        <v>0.6436488523120434</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6378339383366787</v>
+        <v>0.6428535780160392</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6361953198981234</v>
+        <v>0.6378339383366787</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6360816267792071</v>
+        <v>0.636894488454435</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6358091118239111</v>
+        <v>0.6362382683832171</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.634661247076457</v>
+        <v>0.6358091118239111</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6307149175206055</v>
+        <v>0.634661247076457</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6303789029644187</v>
+        <v>0.6308933944753088</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6297511202427284</v>
+        <v>0.6301762903107559</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6277022553901879</v>
+        <v>0.6278588969941983</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6270159388376637</v>
+        <v>0.6260301049436663</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6248770140259023</v>
+        <v>0.6253021840939295</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6233916602930689</v>
+        <v>0.623816830361096</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6219314222676502</v>
+        <v>0.621662893803633</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6203526025335031</v>
+        <v>0.6205092441375131</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6201008793580542</v>
+        <v>0.6203016544768771</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6200151074960942</v>
+        <v>0.6202240718862075</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6199131639150703</v>
+        <v>0.6201008793580542</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.61987648440885</v>
+        <v>0.6200151074960942</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.61979890181818</v>
+        <v>0.6197696715844905</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6197696715844905</v>
+        <v>0.6196035817612731</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6191784116932459</v>
+        <v>0.618508732095373</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.618138427824741</v>
+        <v>0.6178881957591078</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6180835620273459</v>
+        <v>0.6178698993607235</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6178881957591078</v>
+        <v>0.6172789134851278</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.616234848020464</v>
+        <v>0.6162229412454181</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.6162229412454181</v>
+        <v>0.6159710303932648</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.6157128430332972</v>
+        <v>0.6159663195564464</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6149412444537172</v>
+        <v>0.6157128430332972</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.6138410622224151</v>
+        <v>0.6149412444537172</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.6129032982806959</v>
+        <v>0.6135725337583975</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6123313314566881</v>
+        <v>0.6129032982806959</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.6118480158568302</v>
+        <v>0.6123852588752765</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.611763974718404</v>
+        <v>0.6123313314566881</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.6117188106235578</v>
+        <v>0.611763974718404</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.6112588740878953</v>
+        <v>0.6117188106235578</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.6110577843653262</v>
+        <v>0.6112588740878953</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.6109727939879268</v>
+        <v>0.6110623312883088</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.6106371612202812</v>
+        <v>0.6110577843653262</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.6091772620961085</v>
+        <v>0.6109727939879268</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.6078232911826396</v>
+        <v>0.6082523733786389</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.6078123788841725</v>
+        <v>0.6082137787483095</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.6077886086802824</v>
+        <v>0.6078272971321734</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.6066231153343509</v>
+        <v>0.6070482854023784</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.6058662715501186</v>
+        <v>0.6061246588427109</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.6057292535513059</v>
+        <v>0.6058662715501186</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.6052743187066563</v>
+        <v>0.6057292535513059</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.6051492523390114</v>
+        <v>0.6051014337997125</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.6051014337997125</v>
+        <v>0.6048807238749943</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.6012270178533559</v>
+        <v>0.6009584893893387</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.59623165543301</v>
+        <v>0.5966568255010372</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.5896410090747661</v>
+        <v>0.5890305301164651</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.5869234789326487</v>
+        <v>0.5857205220898547</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.5857205220898547</v>
+        <v>0.585133780464234</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.585133780464234</v>
+        <v>0.58496272288847</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.5824917990965131</v>
+        <v>0.5827043841305266</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.5821776298799901</v>
+        <v>0.5819910280506728</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.5818916376451604</v>
+        <v>0.5818131983931099</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.5807880907006706</v>
+        <v>0.5810006757346837</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5784627511017102</v>
+        <v>0.5793434063941296</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.5710806921479876</v>
+        <v>0.5708255901071713</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.5671047147187358</v>
+        <v>0.5661835129046766</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5462259525905475</v>
+        <v>0.5470440828729637</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.537988957980601</v>
+        <v>0.5371647821564256</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5377055112685829</v>
+        <v>0.5370595396134341</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5370595396134341</v>
+        <v>0.5366923709697287</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.5359349204035402</v>
+        <v>0.5357459559288618</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.5307551965710777</v>
+        <v>0.5313787793375173</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.528155172839746</v>
+        <v>0.5265574866564293</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.5263449016224153</v>
+        <v>0.5218028840689537</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.5223081586425513</v>
+        <v>0.5214654428207306</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.5139510190935312</v>
+        <v>0.5136333881392532</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.5053803570590047</v>
+        <v>0.5052858748216655</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.4970832064015331</v>
+        <v>0.4972957914355467</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.4883911928055071</v>
+        <v>0.4892047393779824</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4818853529706417</v>
+        <v>0.4816050489706574</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.4813924639366443</v>
+        <v>0.4810917021769909</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.479863564011076</v>
+        <v>0.4805924269848365</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.4773422657916782</v>
+        <v>0.4775548508256917</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4739130292801503</v>
+        <v>0.4741256143141634</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.4637858250047124</v>
+        <v>0.463042738037921</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.453116877489939</v>
+        <v>0.4618973700799964</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.4522607688776059</v>
+        <v>0.4571581443060837</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.4491844033747392</v>
+        <v>0.4536837709139752</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.446736111684642</v>
+        <v>0.4524849565437963</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.4463070311771364</v>
+        <v>0.4468450737751284</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.4336422037841818</v>
+        <v>0.4336024328038839</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.4334502519685786</v>
+        <v>0.4335745204633423</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.4323779592384329</v>
+        <v>0.4299892556200424</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.4287021818511436</v>
+        <v>0.4213203064503692</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.4222092984107899</v>
+        <v>0.420048232954283</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.4200821080292951</v>
+        <v>0.4198907917821582</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.4200137950416267</v>
+        <v>0.4193701238113112</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.4199675391832471</v>
+        <v>0.4185755861984211</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.4193701238113112</v>
+        <v>0.4183684017134355</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.4186851506961733</v>
+        <v>0.4183628496884015</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.4176556333690149</v>
+        <v>0.4175345346953361</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.4060662217264093</v>
+        <v>0.4060012275758829</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3984993110275297</v>
+        <v>0.3992294340790807</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.382455992394019</v>
+        <v>0.3851429191083693</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3706216025779585</v>
+        <v>0.3676946829841294</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.358738464931573</v>
+        <v>0.3608135047377048</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.3581937627891261</v>
+        <v>0.3607278252353838</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3527409064243576</v>
+        <v>0.3598183626790319</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3522690723069384</v>
+        <v>0.3503029190700491</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.3495083356544924</v>
+        <v>0.3490898105434836</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.348411035152234</v>
+        <v>0.3456679693393774</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3353081565628284</v>
+        <v>0.3392155110156121</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3341526522539795</v>
+        <v>0.3325425484274138</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3224148896424528</v>
+        <v>0.3177826681274802</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.307591143590598</v>
+        <v>0.3141132009066103</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3074257189071312</v>
+        <v>0.3082288986926389</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.306896293422414</v>
+        <v>0.3076889574927633</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.2980729529534543</v>
+        <v>0.2973178807034385</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.2973178807034385</v>
+        <v>0.2948817369125041</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.2905343924291326</v>
+        <v>0.2941347292661189</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.289449787743552</v>
+        <v>0.2904868619378558</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.2868395984373286</v>
+        <v>0.289449787743552</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.285940359417528</v>
+        <v>0.2880950129932742</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.2821332488905623</v>
+        <v>0.284084821030421</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2812616050693106</v>
+        <v>0.2828052624705091</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.281032867057103</v>
+        <v>0.2814580371251303</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2793755572944008</v>
+        <v>0.278208479057001</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.2695474936079219</v>
+        <v>0.2693051049504644</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.2677766245483508</v>
+        <v>0.2691754755997735</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.2670324489913549</v>
+        <v>0.2669999519160922</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.2663807527825777</v>
+        <v>0.2649021725675256</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.2660136421714432</v>
+        <v>0.2640927984840324</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.2638444551112726</v>
+        <v>0.2635202702871997</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.2573593882682863</v>
+        <v>0.2563781096708999</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2557020477351237</v>
+        <v>0.2553433514844459</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2553433514844459</v>
+        <v>0.2547590867840566</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2489175393346568</v>
+        <v>0.2511245651390444</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2487259359706668</v>
+        <v>0.2494093816168459</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2483369268920592</v>
+        <v>0.2482973858859188</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2452132059155241</v>
+        <v>0.2467810597428202</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2448645892503798</v>
+        <v>0.2452838008797491</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2364401127992533</v>
+        <v>0.2365914240582601</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2363918971392409</v>
+        <v>0.2361480227122619</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2363171100816159</v>
+        <v>0.233563645873101</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2310402477615514</v>
+        <v>0.2319961472398517</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2306822758552967</v>
+        <v>0.2300975320106815</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2276672358893974</v>
+        <v>0.2257573336051806</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2247667728371479</v>
+        <v>0.2239910926871229</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.224165370887401</v>
+        <v>0.2236139479075379</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2191113384525123</v>
+        <v>0.2193558112416281</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2186296890526811</v>
+        <v>0.2191101197620706</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2179698907324041</v>
+        <v>0.2184269485555332</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.216496442008896</v>
+        <v>0.2169832720501281</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2152071669224718</v>
+        <v>0.2121671040186675</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2038800174037427</v>
+        <v>0.2011524094312735</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2008328842223943</v>
+        <v>0.2006203988919866</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.1992640648473663</v>
+        <v>0.2005636908731308</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1877291857458334</v>
+        <v>0.186969167983045</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.1876295432475763</v>
+        <v>0.1860285054737245</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.186969167983045</v>
+        <v>0.1821873663768281</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.1803899292776343</v>
+        <v>0.1800311481131533</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.1738510281354344</v>
+        <v>0.175572814786368</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.1729451637181862</v>
+        <v>0.1753342145766248</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.1710100144098807</v>
+        <v>0.1730325757544822</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.1690202778099232</v>
+        <v>0.1639263354710832</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.165364982368527</v>
+        <v>0.1633699638692139</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.1650379387514742</v>
+        <v>0.1620486558379151</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.161823664071377</v>
+        <v>0.1584116742754591</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.1610415325785768</v>
+        <v>0.1579562556486716</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.1591450098930771</v>
+        <v>0.1576295427826584</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.1581514437784113</v>
+        <v>0.1563605581161081</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.1572787013629537</v>
+        <v>0.1557460350306763</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.155935710146617</v>
+        <v>0.1546140459015541</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.1538916017765384</v>
+        <v>0.1542947805218899</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.1501693077618518</v>
+        <v>0.1505941557313426</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.1495231519541143</v>
+        <v>0.1499107199065608</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.1474026772044905</v>
+        <v>0.1495231519541143</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1466564664519867</v>
+        <v>0.147925693608864</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1451110046585822</v>
+        <v>0.1466837889196526</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1443718777815484</v>
+        <v>0.1410555512509362</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.1311509182487993</v>
+        <v>0.131059810377079</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1229571629249064</v>
+        <v>0.125346213783345</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.122493977525699</v>
+        <v>0.124961643732918</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1212676887456647</v>
+        <v>0.1231350331820713</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1210137465244987</v>
+        <v>0.1211780993384735</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1188027458465053</v>
+        <v>0.117460747348666</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.117460747348666</v>
+        <v>0.117279115903882</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.117279115903882</v>
+        <v>0.1158188250054417</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1069164359951786</v>
+        <v>0.1075713428826881</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1065187140600377</v>
+        <v>0.1069164359951786</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.105356395724677</v>
+        <v>0.1057126278288463</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.09930377465894513</v>
+        <v>0.09695049735997707</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.09738371408426882</v>
+        <v>0.09603603899325042</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.09658716722079586</v>
+        <v>0.09474765966250032</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.09355334698882656</v>
+        <v>0.09185114679596418</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.09185114679596418</v>
+        <v>0.08825186216404424</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.08702915299794722</v>
+        <v>0.08598531481888605</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.08475232162160706</v>
+        <v>0.08385608728730354</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.07923924306724794</v>
+        <v>0.07914813519552766</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.07895653501866184</v>
+        <v>0.07570803487469835</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.07704187003425256</v>
+        <v>0.07564020848804964</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.07485769473864345</v>
+        <v>0.07299668052987984</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.07114501023512343</v>
+        <v>0.07097073203484539</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.0665334594593372</v>
+        <v>0.06738379959539209</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.06538071118946021</v>
+        <v>0.06673724996984665</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.06262596535188614</v>
+        <v>0.06611023405936889</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.06054713024957037</v>
+        <v>0.06270673868168841</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.05803861654712028</v>
+        <v>0.05794750867540044</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.04667850562739173</v>
+        <v>0.05011175392671152</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.04663559154911567</v>
+        <v>0.04727132317145299</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.04199996861943611</v>
+        <v>0.0431473524625865</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.04199996861943611</v>
+        <v>0.0431473524625865</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.04178430724449944</v>
+        <v>0.0431473524625865</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.04178430724449944</v>
+        <v>0.04199996861943611</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.04178430724449944</v>
+        <v>0.04199996861943611</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.04142701016748118</v>
+        <v>0.0414465088328253</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.04122486962422256</v>
+        <v>0.04142701016748118</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.04073084254017778</v>
+        <v>0.04122486962422256</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.03949525714002289</v>
+        <v>0.04073084254017778</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.03949525714002289</v>
+        <v>0.03915512108560115</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.03733131300173209</v>
+        <v>0.03915512108560115</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.0367949916604613</v>
+        <v>0.03835927652227555</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.03522095265617486</v>
+        <v>0.03504667445589682</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.03127622615816583</v>
+        <v>0.03105971366408311</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.01670316622790158</v>
+        <v>0.01691761494696298</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.01348074087305862</v>
+        <v>0.01593184205383369</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.01338503181873718</v>
+        <v>0.009435551368685458</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.01170659774635308</v>
+        <v>0.007661408241979473</v>
       </c>
     </row>
     <row r="404" spans="1:2">
